--- a/碧藍.xlsx
+++ b/碧藍.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="艦船" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="艦船表格(characters)" sheetId="3" r:id="rId3"/>
     <sheet name="陣營表格(camps)" sheetId="4" r:id="rId4"/>
     <sheet name="Laravel命名規則" sheetId="5" r:id="rId5"/>
+    <sheet name="路由(routes)及視圖(view)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="193">
   <si>
     <t>稀有度</t>
   </si>
@@ -908,6 +909,1124 @@
         <charset val="136"/>
       </rPr>
       <t>/show.blade.php</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>路由(網址相關)</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>路由名稱</t>
+  </si>
+  <si>
+    <t>視圖名稱</t>
+  </si>
+  <si>
+    <t>補充說明</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>僅帶出表單供使用者輸入資料</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>正式修改資料庫中對應的表格</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>characters</t>
+  </si>
+  <si>
+    <t>camps</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">/create </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>/store</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>/{id}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>/{id}/edit</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>/update/{id}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>/delete/{id}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>camps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">/create </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>camps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>/store</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>camps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>/{id}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>camps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>/{id}/edit</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>camps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>/update/{id}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>camps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>/delete/{id}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查詢所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>艦船</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>新增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>艦船</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料表單</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>新增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>艦船</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>顯示單筆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>艦船</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>艦船</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料表單</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>刪除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>艦船</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>艦船</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查詢所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陣營</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>新增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陣營</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料表單</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>新增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陣營</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>顯示單筆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陣營</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陣營</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料表單</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陣營</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>刪除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陣營</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.index</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.create</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.store</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.show</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.edit</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.update</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.destroy</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>camps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.index</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>camps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.create</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>camps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.store</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>camps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.show</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>camps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.edit</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>camps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.update</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>camps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.destroy</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.create</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.edit</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>camps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.index</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>camps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.create</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>camps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.show</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -916,7 +2035,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -980,8 +2099,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -994,8 +2119,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1018,13 +2149,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,9 +2440,86 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="2"/>
+    <cellStyle name="一般 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2133,7 +3586,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2276,8 +3729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2570,4 +4023,304 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="27.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="37"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A8" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A15" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>